--- a/tests/Cashflowio.Tests/Assets/CoinKeeper.xlsx
+++ b/tests/Cashflowio.Tests/Assets/CoinKeeper.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="103">
   <si>
     <t>None</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Expense</t>
   </si>
   <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
     <t>Transfer</t>
   </si>
   <si>
@@ -48,24 +45,15 @@
     <t>Servicios</t>
   </si>
   <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>Compras</t>
   </si>
   <si>
-    <t>Renovación membresía</t>
-  </si>
-  <si>
     <t>Jesús</t>
   </si>
   <si>
     <t>Gasolina</t>
   </si>
   <si>
-    <t>Libros Psicología</t>
-  </si>
-  <si>
     <t>Familia</t>
   </si>
   <si>
@@ -78,18 +66,12 @@
     <t>Elisa</t>
   </si>
   <si>
-    <t>Botanas</t>
-  </si>
-  <si>
     <t>Oxxo</t>
   </si>
   <si>
     <t>Salud</t>
   </si>
   <si>
-    <t>Carro</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -114,45 +96,12 @@
     <t>Lavadora 22 Kg</t>
   </si>
   <si>
-    <t>Carl's Jr.</t>
-  </si>
-  <si>
-    <t>Tenis</t>
-  </si>
-  <si>
-    <t>Roll Factory</t>
-  </si>
-  <si>
-    <t>Chillis</t>
-  </si>
-  <si>
-    <t>Ocotlán</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Cine</t>
-  </si>
-  <si>
     <t>Soriana</t>
   </si>
   <si>
-    <t>Campestre</t>
-  </si>
-  <si>
-    <t>Las Velas</t>
-  </si>
-  <si>
-    <t>Dulces</t>
-  </si>
-  <si>
     <t>Tacos Panduro</t>
   </si>
   <si>
-    <t>Palomitas</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -195,175 +144,190 @@
     <t>4 llantas Cobalt</t>
   </si>
   <si>
-    <t>Sara's</t>
-  </si>
-  <si>
     <t>Despensa</t>
   </si>
   <si>
-    <t>HBO Go</t>
-  </si>
-  <si>
-    <t>6 meses</t>
-  </si>
-  <si>
-    <t>Leche almendras, yogurt bebible, Activia bebible, yogurt griego</t>
-  </si>
-  <si>
-    <t>20% 298 de 370</t>
-  </si>
-  <si>
-    <t>CFE</t>
-  </si>
-  <si>
-    <t>Bealls outlet</t>
-  </si>
-  <si>
-    <t>2 blusas</t>
-  </si>
-  <si>
-    <t>*#* 36</t>
-  </si>
-  <si>
-    <t>Cheerios, atún, jugos, cepillo cabello, pavo, huevos</t>
-  </si>
-  <si>
-    <t>Poner palanca direccional y arreglar cajuela</t>
-  </si>
-  <si>
     <t>Videojuegos</t>
   </si>
   <si>
-    <t>PS3</t>
-  </si>
-  <si>
-    <t>Resident Evil 6</t>
-  </si>
-  <si>
-    <t>Papá</t>
-  </si>
-  <si>
     <t>Costco</t>
   </si>
   <si>
-    <t>Arena</t>
-  </si>
-  <si>
-    <t>11/13/2019</t>
-  </si>
-  <si>
     <t>Burger King</t>
   </si>
   <si>
-    <t>11/14/2019</t>
-  </si>
-  <si>
-    <t>11/15/2019</t>
-  </si>
-  <si>
-    <t>Asadero 3 Villas (110 dos papas)</t>
-  </si>
-  <si>
-    <t>Chromecast, cargador, baterías recargables AA y AAA (8), cable USB Tipo C</t>
-  </si>
-  <si>
-    <t>Llantas</t>
-  </si>
-  <si>
-    <t>11/17/2019</t>
-  </si>
-  <si>
-    <t>Jack in the box</t>
-  </si>
-  <si>
     <t>Macy's</t>
   </si>
   <si>
-    <t>3 blusas</t>
-  </si>
-  <si>
-    <t>Ropa, difusor aromas, regalos</t>
-  </si>
-  <si>
-    <t>11/18/2019</t>
-  </si>
-  <si>
-    <t>11/19/2019</t>
-  </si>
-  <si>
-    <t>Cuadro alérgico</t>
-  </si>
-  <si>
-    <t>11/21/2019</t>
-  </si>
-  <si>
-    <t>Consulta</t>
-  </si>
-  <si>
-    <t>Oftalmólogo</t>
-  </si>
-  <si>
-    <t>Gotas antibiótico</t>
-  </si>
-  <si>
-    <t>11/22/2019</t>
-  </si>
-  <si>
-    <t>Villa Don Nacho</t>
-  </si>
-  <si>
-    <t>11/23/2019</t>
-  </si>
-  <si>
-    <t>Teriyaki Home</t>
-  </si>
-  <si>
-    <t>Pastel, yogurt bebible</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
-    <t>11/27/2019</t>
-  </si>
-  <si>
-    <t>11/28/2019</t>
-  </si>
-  <si>
-    <t>La carreta</t>
-  </si>
-  <si>
-    <t>11/29/2019</t>
-  </si>
-  <si>
-    <t>Investigar</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>Yogurt bebible, cepillos de dientes</t>
-  </si>
-  <si>
-    <t>Navidad</t>
-  </si>
-  <si>
-    <t>Frozen 2</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Payment</t>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Telnor</t>
+  </si>
+  <si>
+    <t>Hot dog, bebida, sandwich pollo y strudel de manzana</t>
+  </si>
+  <si>
+    <t>Buffalo Wings</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Pokemon Sword</t>
+  </si>
+  <si>
+    <t>Camisa</t>
+  </si>
+  <si>
+    <t>New York &amp; Company</t>
+  </si>
+  <si>
+    <t>Suéter</t>
+  </si>
+  <si>
+    <t>JCPenney</t>
+  </si>
+  <si>
+    <t>Regalo</t>
+  </si>
+  <si>
+    <t>Kit old spice</t>
+  </si>
+  <si>
+    <t>Taco Bell</t>
+  </si>
+  <si>
+    <t>Arena, pasta de dientes, botana</t>
+  </si>
+  <si>
+    <t>Consulta urólogo</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Medicamento urólogo</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>12/13/2019</t>
+  </si>
+  <si>
+    <t>12/15/2019</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Boxers</t>
+  </si>
+  <si>
+    <t>Camisa, suéter, pantalón</t>
+  </si>
+  <si>
+    <t>Mamá</t>
+  </si>
+  <si>
+    <t>Venta Fire Stick</t>
+  </si>
+  <si>
+    <t>Lasagna</t>
+  </si>
+  <si>
+    <t>Galletas, jugo, aromatizante, cereales, bastones caramelo</t>
+  </si>
+  <si>
+    <t>99 Cents Only Stores</t>
+  </si>
+  <si>
+    <t>Bolsas navidad, ganchos tendedero, listón</t>
+  </si>
+  <si>
+    <t>12/16/2019</t>
+  </si>
+  <si>
+    <t>Mascotas</t>
+  </si>
+  <si>
+    <t>Comida y antibiótico</t>
+  </si>
+  <si>
+    <t>12/19/2019</t>
+  </si>
+  <si>
+    <t>Autoservicio</t>
+  </si>
+  <si>
+    <t>Liquis</t>
+  </si>
+  <si>
+    <t>12/20/2019</t>
+  </si>
+  <si>
+    <t>Aguinaldo</t>
+  </si>
+  <si>
+    <t>Little Caesars</t>
+  </si>
+  <si>
+    <t>12/22/2019</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>Gomitas, bebida, plato navideño, juguete para gatas, pastillas menta para la tos</t>
+  </si>
+  <si>
+    <t>Hot Topic</t>
+  </si>
+  <si>
+    <t>Suéter y pinturas de uñas</t>
+  </si>
+  <si>
+    <t>Adornos navideños, esencias aromatizantes, pan de barra, pollo, puré de papas, relleno pavo, esponjas, Sabritas, gelatina, yogurts, puddings, sazonador, bolsa para hornear pavo, esponjas de cocina</t>
+  </si>
+  <si>
+    <t>Marshall's</t>
+  </si>
+  <si>
+    <t>Bolsas mandado</t>
+  </si>
+  <si>
+    <t>LEGO, cheesecake, reloj, bolsa, repisa vasos</t>
+  </si>
+  <si>
+    <t>Michael's</t>
+  </si>
+  <si>
+    <t>Gatitos</t>
+  </si>
+  <si>
+    <t>12/23/2019</t>
+  </si>
+  <si>
+    <t>Circuncisión</t>
+  </si>
+  <si>
+    <t>12/24/2019</t>
+  </si>
+  <si>
+    <t>12/25/2019</t>
+  </si>
+  <si>
+    <t>Smash DLC</t>
+  </si>
+  <si>
+    <t>12/26/2019</t>
+  </si>
+  <si>
+    <t>12/27/2019</t>
+  </si>
+  <si>
+    <t>12/30/2019</t>
   </si>
 </sst>
 </file>
@@ -682,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,54 +659,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43476</v>
+        <v>43477</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
       </c>
       <c r="F2">
         <v>169</v>
@@ -762,115 +723,124 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43476</v>
+        <v>43508</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43476</v>
+        <v>43508</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
+      </c>
+      <c r="K4">
+        <v>27.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43476</v>
+        <v>43508</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43476</v>
+        <v>43536</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>117</v>
+        <v>514</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>514</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -881,28 +851,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43476</v>
+        <v>43536</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -913,63 +883,57 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43507</v>
+        <v>43567</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>8589</v>
+        <v>1500</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>8589</v>
+        <v>1500</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43507</v>
+        <v>43567</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F9">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -980,19 +944,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43507</v>
+        <v>43597</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -1012,28 +973,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43535</v>
+        <v>43597</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>1411</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1411</v>
+        <v>200</v>
       </c>
       <c r="I11" t="s">
         <v>1</v>
@@ -1044,95 +1005,92 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43535</v>
+        <v>43597</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>706</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>706</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43535</v>
+        <v>43597</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
       <c r="F13">
-        <v>809</v>
+        <v>3300</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>809</v>
+        <v>3300</v>
       </c>
       <c r="I13" t="s">
         <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43535</v>
+        <v>43597</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
         <v>1</v>
@@ -1143,118 +1101,115 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43535</v>
+        <v>43628</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I15" t="s">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43535</v>
+        <v>43628</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
       <c r="F16">
-        <v>429</v>
+        <v>700</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>429</v>
+        <v>700</v>
       </c>
       <c r="I16" t="s">
         <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43566</v>
+        <v>43628</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43566</v>
+        <v>43628</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>538</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>538</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
         <v>1</v>
@@ -1265,83 +1220,95 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43566</v>
+        <v>43628</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>389</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="s">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
+      </c>
+      <c r="K19">
+        <v>19.02</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43566</v>
+        <v>43658</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="I20" t="s">
         <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
+      </c>
+      <c r="K20">
+        <v>21.632999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43566</v>
+        <v>43658</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>54.06</v>
       </c>
       <c r="G21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>300</v>
+        <v>1028</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
@@ -1350,33 +1317,33 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43596</v>
+        <v>43658</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>250</v>
+        <v>16.23</v>
       </c>
       <c r="G22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>250</v>
+        <v>308.69</v>
       </c>
       <c r="I22" t="s">
         <v>1</v>
@@ -1384,34 +1351,34 @@
       <c r="J22" t="s">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>13.661</v>
+      <c r="K22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F23">
-        <v>148</v>
+        <v>21.64</v>
       </c>
       <c r="G23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>148</v>
+        <v>411.6</v>
       </c>
       <c r="I23" t="s">
         <v>1</v>
@@ -1420,88 +1387,103 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
       <c r="F24">
-        <v>4500</v>
+        <v>27.05</v>
       </c>
       <c r="G24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>4500</v>
+        <v>514.5</v>
       </c>
       <c r="I24" t="s">
         <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>190.2</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>3300</v>
+        <v>79.14</v>
       </c>
       <c r="G26" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>3300</v>
+        <v>1505.24</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -1512,25 +1494,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43688</v>
+        <v>43658</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
       </c>
       <c r="F27">
-        <v>1000</v>
+        <v>9.94</v>
       </c>
       <c r="G27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H27">
-        <v>1000</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
         <v>1</v>
@@ -1541,54 +1526,57 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43688</v>
+        <v>43720</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43688</v>
+        <v>43720</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>1000</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1000</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>1</v>
@@ -1599,57 +1587,60 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43688</v>
+        <v>43720</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>200</v>
+        <v>488</v>
       </c>
       <c r="G30" t="s">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>200</v>
+        <v>488</v>
       </c>
       <c r="I30" t="s">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43688</v>
+        <v>43750</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
         <v>1</v>
@@ -1660,54 +1651,54 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43688</v>
+        <v>43750</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43688</v>
+        <v>43750</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I33" t="s">
         <v>1</v>
@@ -1718,16 +1709,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43688</v>
+        <v>43781</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
       </c>
       <c r="F34">
         <v>700</v>
@@ -1744,63 +1738,63 @@
       <c r="J34" t="s">
         <v>0</v>
       </c>
+      <c r="K34" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43688</v>
+        <v>43781</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
       </c>
       <c r="F35">
-        <v>1990</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>0</v>
-      </c>
-      <c r="K35">
-        <v>18.59</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43688</v>
+        <v>43781</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="G36" t="s">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="I36" t="s">
         <v>1</v>
@@ -1808,101 +1802,92 @@
       <c r="J36" t="s">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>20.952999999999999</v>
+      <c r="K36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43719</v>
+        <v>43781</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F37">
-        <v>68</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="s">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>68</v>
+        <v>1000</v>
       </c>
       <c r="I37" t="s">
         <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43719</v>
+        <v>43811</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F38">
-        <v>34.67</v>
+        <v>3000</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>662.38</v>
+        <v>3000</v>
       </c>
       <c r="I38" t="s">
         <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43719</v>
+        <v>43811</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>21.11</v>
+        <v>2900</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>403.31</v>
+        <v>2900</v>
       </c>
       <c r="I39" t="s">
         <v>1</v>
@@ -1911,68 +1896,62 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43719</v>
+        <v>43811</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F40">
-        <v>51.04</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>975.14</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43749</v>
+        <v>43811</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
       <c r="F41">
-        <v>344</v>
+        <v>3300</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>344</v>
+        <v>3300</v>
       </c>
       <c r="I41" t="s">
         <v>1</v>
@@ -1982,61 +1961,61 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43749</v>
+      <c r="A42" t="s">
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>600</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>600</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42">
-        <v>688</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>688</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43749</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
       <c r="F43">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I43" t="s">
         <v>1</v>
@@ -2044,25 +2023,22 @@
       <c r="J43" t="s">
         <v>0</v>
       </c>
-      <c r="K43" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43749</v>
+      <c r="A44" t="s">
+        <v>64</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <v>100</v>
@@ -2079,157 +2055,163 @@
       <c r="J44" t="s">
         <v>0</v>
       </c>
-      <c r="K44" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43780</v>
+      <c r="A45" t="s">
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>105</v>
+      </c>
+      <c r="I46" t="s">
         <v>17</v>
       </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>887</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>887</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
         <v>0</v>
       </c>
+      <c r="K46">
+        <v>18.93</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43810</v>
+      <c r="A47" t="s">
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F47">
+        <v>26.54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>57.04</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48">
+        <v>32.94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>854.42</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49">
         <v>500</v>
       </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>500</v>
       </c>
-      <c r="I47" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48">
-        <v>75</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49">
-        <v>279</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>279</v>
-      </c>
       <c r="I49" t="s">
         <v>1</v>
       </c>
@@ -2237,158 +2219,167 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F50">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H50">
-        <v>95</v>
+        <v>227.74</v>
       </c>
       <c r="I50" t="s">
         <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>3300</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="G51" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H51">
-        <v>3300</v>
+        <v>319.98</v>
       </c>
       <c r="I51" t="s">
         <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>133.09</v>
       </c>
       <c r="I52" t="s">
         <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54">
-        <v>65</v>
+        <v>700</v>
       </c>
       <c r="G54" t="s">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>65</v>
+        <v>700</v>
       </c>
       <c r="I54" t="s">
         <v>1</v>
@@ -2397,62 +2388,62 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F55">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="I55" t="s">
         <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>1485</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1485</v>
+        <v>294</v>
       </c>
       <c r="I56" t="s">
         <v>1</v>
@@ -2461,94 +2452,94 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G57" t="s">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I57" t="s">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>4000</v>
+        <v>568</v>
       </c>
       <c r="G58" t="s">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>4000</v>
+        <v>568</v>
       </c>
       <c r="I58" t="s">
         <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>4000</v>
+        <v>568</v>
       </c>
       <c r="G59" t="s">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>4000</v>
+        <v>568</v>
       </c>
       <c r="I59" t="s">
         <v>1</v>
@@ -2559,16 +2550,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
       </c>
       <c r="F60">
         <v>700</v>
@@ -2585,28 +2579,31 @@
       <c r="J60" t="s">
         <v>0</v>
       </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>1</v>
@@ -2617,89 +2614,95 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
       <c r="F62">
-        <v>555</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>555</v>
+        <v>60</v>
       </c>
       <c r="I62" t="s">
         <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
       </c>
       <c r="F63">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>0</v>
-      </c>
-      <c r="K63">
-        <v>18.78</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F64">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G64" t="s">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I64" t="s">
         <v>1</v>
@@ -2708,33 +2711,30 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>27.321999999999999</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
       <c r="F65">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="G65" t="s">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="I65" t="s">
         <v>1</v>
@@ -2743,33 +2743,33 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66">
-        <v>16.760000000000002</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>321.5</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
         <v>1</v>
@@ -2780,194 +2780,176 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>35.85</v>
+        <v>700</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>687.7</v>
+        <v>700</v>
       </c>
       <c r="I67" t="s">
         <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>67.180000000000007</v>
+        <v>3300</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1288.69</v>
+        <v>3300</v>
       </c>
       <c r="I68" t="s">
         <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>9000</v>
       </c>
       <c r="G69" t="s">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>9000</v>
       </c>
       <c r="I69" t="s">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="s">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>40</v>
+        <v>159.57</v>
       </c>
       <c r="I70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
         <v>0</v>
+      </c>
+      <c r="K70">
+        <v>18.8</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F71">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="G71" t="s">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="I71" t="s">
         <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F72">
-        <v>585</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>585</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
         <v>1</v>
@@ -2978,57 +2960,63 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F73">
-        <v>585</v>
+        <v>5.38</v>
       </c>
       <c r="G73" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H73">
-        <v>585</v>
+        <v>101.91</v>
       </c>
       <c r="I73" t="s">
         <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>87</v>
       </c>
       <c r="F74">
-        <v>1027</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G74" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H74">
-        <v>1027</v>
+        <v>695.16</v>
       </c>
       <c r="I74" t="s">
         <v>1</v>
@@ -3037,33 +3025,33 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>611</v>
+        <v>43.61</v>
       </c>
       <c r="G75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H75">
-        <v>611</v>
+        <v>1015.47</v>
       </c>
       <c r="I75" t="s">
         <v>1</v>
@@ -3072,97 +3060,112 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76">
+        <v>4.29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
         <v>91</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>3300</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>3300</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="F77">
-        <v>200</v>
+        <v>83.56</v>
       </c>
       <c r="G77" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H77">
-        <v>200</v>
+        <v>1582.78</v>
       </c>
       <c r="I77" t="s">
         <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78">
         <v>6</v>
       </c>
-      <c r="C78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78">
-        <v>200</v>
-      </c>
       <c r="G78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H78">
-        <v>200</v>
+        <v>113.65</v>
       </c>
       <c r="I78" t="s">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3170,28 +3173,28 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F79">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3199,28 +3202,31 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>1000</v>
+        <v>782</v>
       </c>
       <c r="G80" t="s">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1000</v>
+        <v>782</v>
       </c>
       <c r="I80" t="s">
         <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3228,25 +3234,22 @@
         <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G81" t="s">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="I81" t="s">
         <v>1</v>
@@ -3260,22 +3263,22 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F82">
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="G82" t="s">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="I82" t="s">
         <v>1</v>
@@ -3289,22 +3292,25 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
       </c>
       <c r="F83">
-        <v>1000</v>
+        <v>388</v>
       </c>
       <c r="G83" t="s">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1000</v>
+        <v>388</v>
       </c>
       <c r="I83" t="s">
         <v>1</v>
@@ -3318,57 +3324,57 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
       </c>
       <c r="F84">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G84" t="s">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>106</v>
+        <v>8000</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>0</v>
       </c>
-      <c r="K84">
-        <v>18.850000000000001</v>
+      <c r="K84" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="G85" t="s">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="I85" t="s">
         <v>1</v>
@@ -3376,8 +3382,8 @@
       <c r="J85" t="s">
         <v>0</v>
       </c>
-      <c r="K85">
-        <v>10.477</v>
+      <c r="K85" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3385,31 +3391,31 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>200</v>
+        <v>682</v>
       </c>
       <c r="G86" t="s">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>200</v>
+        <v>682</v>
       </c>
       <c r="I86" t="s">
         <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3417,31 +3423,31 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" t="s">
-        <v>24</v>
-      </c>
       <c r="F87">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="I87" t="s">
         <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3449,25 +3455,22 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="I88" t="s">
         <v>1</v>
@@ -3476,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3484,25 +3487,22 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" t="s">
-        <v>34</v>
-      </c>
       <c r="F89">
-        <v>500</v>
+        <v>169</v>
       </c>
       <c r="G89" t="s">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>500</v>
+        <v>169</v>
       </c>
       <c r="I89" t="s">
         <v>1</v>
@@ -3516,34 +3516,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F90">
-        <v>1153</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1153</v>
+        <v>150</v>
       </c>
       <c r="I90" t="s">
         <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>0</v>
-      </c>
-      <c r="K90">
-        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,28 +3545,31 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
-      </c>
       <c r="F91">
-        <v>6642</v>
+        <v>569</v>
       </c>
       <c r="G91" t="s">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>6642</v>
+        <v>569</v>
       </c>
       <c r="I91" t="s">
         <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3580,86 +3577,80 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="I92" t="s">
         <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F93">
-        <v>1188</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="s">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1188</v>
+        <v>2000</v>
       </c>
       <c r="I93" t="s">
         <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F94">
-        <v>4000</v>
+        <v>596</v>
       </c>
       <c r="G94" t="s">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>4000</v>
+        <v>596</v>
       </c>
       <c r="I94" t="s">
         <v>1</v>
@@ -3668,94 +3659,91 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
         <v>3</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
       <c r="F95">
-        <v>500</v>
+        <v>3300</v>
       </c>
       <c r="G95" t="s">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>500</v>
+        <v>3300</v>
       </c>
       <c r="I95" t="s">
         <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
         <v>3</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
       <c r="F96">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="G96" t="s">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="I96" t="s">
         <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>46</v>
       </c>
       <c r="F97">
-        <v>175</v>
+        <v>710</v>
       </c>
       <c r="G97" t="s">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>175</v>
+        <v>710</v>
       </c>
       <c r="I97" t="s">
         <v>1</v>
@@ -3763,34 +3751,34 @@
       <c r="J97" t="s">
         <v>0</v>
       </c>
-      <c r="K97" t="s">
-        <v>29</v>
+      <c r="K97">
+        <v>38.878</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F98">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="G98" t="s">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
         <v>1</v>
@@ -3801,16 +3789,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F99">
         <v>100</v>
@@ -3825,705 +3813,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100">
-        <v>1027</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1027</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101">
-        <v>1485</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>1485</v>
-      </c>
-      <c r="I101" t="s">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>110</v>
-      </c>
-      <c r="I102" t="s">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <v>68</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>68</v>
-      </c>
-      <c r="I103" t="s">
-        <v>1</v>
-      </c>
-      <c r="J103" t="s">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>150</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>150</v>
-      </c>
-      <c r="I104" t="s">
-        <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105">
-        <v>169</v>
-      </c>
-      <c r="G105" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>169</v>
-      </c>
-      <c r="I105" t="s">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F106">
-        <v>105</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>105</v>
-      </c>
-      <c r="I106" t="s">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107">
-        <v>205</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>205</v>
-      </c>
-      <c r="I107" t="s">
-        <v>1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" t="s">
         <v>12</v>
-      </c>
-      <c r="F108">
-        <v>300</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>300</v>
-      </c>
-      <c r="I108" t="s">
-        <v>1</v>
-      </c>
-      <c r="J108" t="s">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>16.349</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109">
-        <v>70</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>70</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1</v>
-      </c>
-      <c r="J109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110">
-        <v>3300</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>3300</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111">
-        <v>150</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>150</v>
-      </c>
-      <c r="I111" t="s">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>104</v>
-      </c>
-      <c r="F112">
-        <v>60</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>60</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1</v>
-      </c>
-      <c r="J112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" t="s">
-        <v>56</v>
-      </c>
-      <c r="F113">
-        <v>400</v>
-      </c>
-      <c r="G113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>400</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1</v>
-      </c>
-      <c r="J113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" t="s">
-        <v>55</v>
-      </c>
-      <c r="D114" t="s">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>700</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>700</v>
-      </c>
-      <c r="I114" t="s">
-        <v>1</v>
-      </c>
-      <c r="J114" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115">
-        <v>589</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>589</v>
-      </c>
-      <c r="I115" t="s">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116">
-        <v>690</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>690</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>59</v>
-      </c>
-      <c r="E117" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117">
-        <v>191</v>
-      </c>
-      <c r="G117" t="s">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>191</v>
-      </c>
-      <c r="I117" t="s">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
-      </c>
-      <c r="F118">
-        <v>4000</v>
-      </c>
-      <c r="G118" t="s">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>4000</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" t="s">
-        <v>59</v>
-      </c>
-      <c r="E119" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119">
-        <v>100</v>
-      </c>
-      <c r="G119" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>100</v>
-      </c>
-      <c r="I119" t="s">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" t="s">
-        <v>36</v>
-      </c>
-      <c r="F120">
-        <v>160</v>
-      </c>
-      <c r="G120" t="s">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>160</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121">
-        <v>4000</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>4000</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
